--- a/4-from-pivots-to-aggregation/group-by-demo.xlsx
+++ b/4-from-pivots-to-aggregation/group-by-demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
   </bookViews>
   <sheets>
     <sheet name="grouped-aggregation-demo" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>ACCOUNTING</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Sum of sal</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Average of sal2</t>
+  </si>
+  <si>
+    <t>"Sum and maximum of salary, grouped by department."</t>
+  </si>
+  <si>
+    <t>"Maximum, sum and average of salary, grouped by location and department."</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,11 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="locno" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="3"/>
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -333,7 +349,7 @@
     <m/>
     <x v="0"/>
     <s v="MANAGEMENT"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="5156"/>
@@ -345,7 +361,7 @@
     <m/>
     <x v="1"/>
     <s v="SALES"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="9844"/>
@@ -357,7 +373,7 @@
     <m/>
     <x v="1"/>
     <s v="SALES"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="4965"/>
@@ -369,7 +385,7 @@
     <m/>
     <x v="2"/>
     <s v="OPERATIONS"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="5262"/>
@@ -381,7 +397,7 @@
     <m/>
     <x v="2"/>
     <s v="OPERATIONS"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="1403"/>
@@ -393,7 +409,7 @@
     <m/>
     <x v="1"/>
     <s v="SALES"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="8215"/>
@@ -405,7 +421,7 @@
     <m/>
     <x v="0"/>
     <s v="MANAGEMENT"/>
-    <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="9735"/>
@@ -417,7 +433,7 @@
     <m/>
     <x v="1"/>
     <s v="SALES"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="7870"/>
@@ -429,7 +445,7 @@
     <m/>
     <x v="3"/>
     <s v="ACCOUNTING"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="4460"/>
@@ -441,7 +457,7 @@
     <m/>
     <x v="4"/>
     <s v="SUPPLIER RELATIONS"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3304"/>
@@ -453,7 +469,7 @@
     <m/>
     <x v="3"/>
     <s v="ACCOUNTING"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="6811"/>
@@ -465,7 +481,7 @@
     <m/>
     <x v="3"/>
     <s v="ACCOUNTING"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="9909"/>
@@ -477,7 +493,7 @@
     <m/>
     <x v="1"/>
     <s v="SALES"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="6395"/>
@@ -489,7 +505,7 @@
     <m/>
     <x v="5"/>
     <s v="CUSTOMER RELATIONS"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="4858"/>
@@ -501,7 +517,7 @@
     <m/>
     <x v="6"/>
     <s v="HUMAN RESOURCES"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="8514"/>
@@ -513,7 +529,7 @@
     <m/>
     <x v="0"/>
     <s v="MANAGEMENT"/>
-    <n v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="4518"/>
@@ -525,7 +541,7 @@
     <m/>
     <x v="7"/>
     <s v="QUALITY ASSURANCE"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3891"/>
@@ -537,7 +553,7 @@
     <m/>
     <x v="8"/>
     <s v="LOGISTICS"/>
-    <n v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2029"/>
@@ -549,7 +565,7 @@
     <m/>
     <x v="0"/>
     <s v="MANAGEMENT"/>
-    <n v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="7852"/>
@@ -561,12 +577,124 @@
     <m/>
     <x v="0"/>
     <s v="MANAGEMENT"/>
-    <n v="1"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="M17:Q30" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="9"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Max of sal" fld="5" subtotal="max" baseField="7" baseItem="7"/>
+    <dataField name="Sum of sal" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Average of sal2" fld="5" subtotal="average" baseField="7" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:O13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -946,27 +1074,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="8.84375" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="27.4609375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.69140625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.53515625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="8.84375" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="7.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.3046875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="7.53515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="12.3828125" customWidth="1"/>
+    <col min="14" max="14" width="9.07421875" customWidth="1"/>
+    <col min="15" max="15" width="9.3828125" customWidth="1"/>
+    <col min="16" max="16" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9759</v>
       </c>
@@ -1027,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>5156</v>
       </c>
@@ -1065,7 +1195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -1102,8 +1232,11 @@
       <c r="O4" s="4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4965</v>
       </c>
@@ -1141,7 +1274,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5262</v>
       </c>
@@ -1179,7 +1312,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1403</v>
       </c>
@@ -1217,7 +1350,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8215</v>
       </c>
@@ -1255,7 +1388,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9735</v>
       </c>
@@ -1293,7 +1426,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7870</v>
       </c>
@@ -1331,7 +1464,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>4460</v>
       </c>
@@ -1369,7 +1502,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3304</v>
       </c>
@@ -1407,7 +1540,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>6811</v>
       </c>
@@ -1445,7 +1578,7 @@
         <v>35250</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9909</v>
       </c>
@@ -1474,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>6395</v>
       </c>
@@ -1503,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>4858</v>
       </c>
@@ -1532,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8514</v>
       </c>
@@ -1560,8 +1693,11 @@
       <c r="J17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>4518</v>
       </c>
@@ -1589,8 +1725,26 @@
       <c r="J18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3891</v>
       </c>
@@ -1618,8 +1772,23 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5000</v>
+      </c>
+      <c r="P19" s="4">
+        <v>10500</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2029</v>
       </c>
@@ -1647,8 +1816,23 @@
       <c r="J20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>50</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7852</v>
       </c>
@@ -1675,12 +1859,177 @@
       </c>
       <c r="J21" s="2">
         <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1600</v>
+      </c>
+      <c r="P21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1333.3333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1300</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1750</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1750</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>40</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1500</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1500</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1900</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1900</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>60</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1300</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2200</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>70</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1300</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>80</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1500</v>
+      </c>
+      <c r="P28" s="4">
+        <v>7500</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>90</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1300</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5000</v>
+      </c>
+      <c r="P30" s="4">
+        <v>35250</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1762.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>